--- a/branches/jembi-contrib/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/jembi-contrib/StructureDefinition-hiv-diagnosis.xlsx
@@ -3649,7 +3649,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>222</v>
       </c>
@@ -3659,13 +3659,13 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>42</v>
